--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/company/Documents/Julian/Udea/semestre 2/informatica 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAA25D-1361-4D14-B96A-518794DE30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="4460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,9 +93,6 @@
     <t>11:00 p.m.</t>
   </si>
   <si>
-    <t>SEMANA 13-19 DE FEB</t>
-  </si>
-  <si>
     <t>DOMINGO</t>
   </si>
   <si>
@@ -120,12 +118,15 @@
   </si>
   <si>
     <t>estudiar ingles</t>
+  </si>
+  <si>
+    <t>SEMANA 13-19 DE FEBRERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -239,20 +240,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,23 +258,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -294,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -561,47 +563,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="V8" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="V8" t="s">
+      <c r="AC8" s="5"/>
+      <c r="AE8" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" s="8"/>
-      <c r="AE8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="K9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="K10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,10 +622,10 @@
       <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,10 +644,10 @@
       <c r="Q11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" s="6"/>
+      <c r="R11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="3"/>
       <c r="U11" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +666,10 @@
       <c r="Z11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC11" s="6"/>
+      <c r="AA11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,12 +688,12 @@
       <c r="AI11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
+      <c r="AJ11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>0.25</v>
       </c>
       <c r="C12" s="1"/>
@@ -701,7 +703,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0.25</v>
       </c>
       <c r="L12" s="1"/>
@@ -711,7 +713,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="T12" s="6">
+      <c r="T12" s="3">
         <v>0.25</v>
       </c>
       <c r="U12" s="1"/>
@@ -721,7 +723,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AC12" s="6">
+      <c r="AC12" s="3">
         <v>0.25</v>
       </c>
       <c r="AD12" s="1"/>
@@ -732,8 +734,8 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
@@ -743,7 +745,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="1"/>
@@ -753,7 +755,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U13" s="1"/>
@@ -763,7 +765,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AD13" s="1"/>
@@ -774,613 +776,613 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="6">
+    <row r="14" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>26</v>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="13" t="s">
-        <v>26</v>
+      <c r="Q14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="T14" s="6">
+      <c r="T14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="13" t="s">
-        <v>26</v>
+      <c r="Z14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="AA14" s="1"/>
-      <c r="AC14" s="6">
+      <c r="AC14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="4" t="s">
+      <c r="AG14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="13" t="s">
-        <v>26</v>
+      <c r="AI14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="4"/>
+      <c r="L15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="14"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="1"/>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" s="4"/>
+      <c r="U15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="14"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="14"/>
+      <c r="Z15" s="8"/>
       <c r="AA15" s="1"/>
-      <c r="AC15" s="6" t="s">
+      <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG15" s="4"/>
+      <c r="AD15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="14"/>
+      <c r="AI15" s="8"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6">
+    <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="5" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="G16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="P16" s="5" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="P16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="T16" s="6">
+      <c r="T16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="5" t="s">
+      <c r="U16" s="11"/>
+      <c r="V16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="11"/>
+      <c r="Y16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
-      <c r="AC16" s="6">
+      <c r="AC16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF16" s="15"/>
-      <c r="AH16" s="5" t="s">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="11"/>
+      <c r="AH16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AI16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="3"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
-      <c r="T17" s="6">
+      <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="3"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="13"/>
       <c r="AA17" s="1"/>
-      <c r="AC17" s="6">
+      <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="3"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6">
+    <row r="18" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="3" t="s">
+      <c r="L18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="5"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="T18" s="6">
+      <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="3" t="s">
+      <c r="U18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="5"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AC18" s="6">
+      <c r="AC18" s="3">
         <v>0</v>
       </c>
-      <c r="AD18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="3" t="s">
+      <c r="AD18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="5"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="12"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="6">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="T19" s="6">
+      <c r="T19" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="13"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AC19" s="6">
+      <c r="AC19" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="13"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6">
+    <row r="20" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="I20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="R20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC20" s="6">
+      <c r="AA20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AD20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AF20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AH20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B21" s="6">
+      <c r="AJ20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
-      <c r="K21" s="6">
+      <c r="I21" s="10"/>
+      <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="12"/>
-      <c r="T21" s="6">
+      <c r="R21" s="10"/>
+      <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="12"/>
-      <c r="AC21" s="6">
+      <c r="AA21" s="10"/>
+      <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6">
+      <c r="AJ21" s="10"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="L22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" s="6">
+      <c r="R22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22" s="5" t="s">
+      <c r="U22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="5" t="s">
+      <c r="Y22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC22" s="6">
+      <c r="AA22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AD22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AF22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AG22" s="5" t="s">
+      <c r="AG22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="5" t="s">
+      <c r="AH22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6">
+      <c r="AJ22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="14"/>
-      <c r="K23" s="6">
+      <c r="I23" s="8"/>
+      <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="14"/>
-      <c r="T23" s="6">
+      <c r="R23" s="8"/>
+      <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="14"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="14"/>
-      <c r="AC23" s="6">
+      <c r="AA23" s="8"/>
+      <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="14"/>
-    </row>
-    <row r="24" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6">
+      <c r="AJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>0.75</v>
       </c>
       <c r="C24" s="1"/>
@@ -1389,10 +1391,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="I24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.75</v>
       </c>
       <c r="L24" s="1"/>
@@ -1401,10 +1403,10 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" s="6">
+      <c r="R24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="3">
         <v>0.75</v>
       </c>
       <c r="U24" s="1"/>
@@ -1413,10 +1415,10 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC24" s="6">
+      <c r="AA24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC24" s="3">
         <v>0.75</v>
       </c>
       <c r="AD24" s="1"/>
@@ -1425,12 +1427,12 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="AJ24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
@@ -1439,8 +1441,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="14"/>
-      <c r="K25" s="6" t="s">
+      <c r="I25" s="8"/>
+      <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="1"/>
@@ -1449,8 +1451,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="14"/>
-      <c r="T25" s="6" t="s">
+      <c r="R25" s="8"/>
+      <c r="T25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U25" s="1"/>
@@ -1459,8 +1461,8 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="14"/>
-      <c r="AC25" s="6" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AC25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AD25" s="1"/>
@@ -1469,10 +1471,10 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="14"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B26" s="6">
+      <c r="AJ25" s="8"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="C26" s="1"/>
@@ -1482,7 +1484,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="L26" s="1"/>
@@ -1492,7 +1494,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="T26" s="6">
+      <c r="T26" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="U26" s="1"/>
@@ -1502,7 +1504,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AC26" s="6">
+      <c r="AC26" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="AD26" s="1"/>
@@ -1513,26 +1515,26 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>30</v>
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>25</v>
+      <c r="L27" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1540,11 +1542,11 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="13" t="s">
-        <v>25</v>
+      <c r="U27" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -1552,11 +1554,11 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AC27" s="7" t="s">
+      <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="13" t="s">
-        <v>25</v>
+      <c r="AD27" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -1565,166 +1567,256 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
-        <v>25</v>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="13" t="s">
-        <v>25</v>
+      <c r="N28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="14"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="13" t="s">
-        <v>25</v>
+      <c r="W28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AC28" s="9" t="s">
+      <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="14"/>
+      <c r="AD28" s="8"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="13" t="s">
-        <v>25</v>
+      <c r="AF28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13" t="s">
-        <v>25</v>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="13" t="s">
-        <v>25</v>
+      <c r="L29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="13" t="s">
-        <v>25</v>
+      <c r="U29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AC29" s="7" t="s">
+      <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="13" t="s">
-        <v>25</v>
+      <c r="AD29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="7">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="T30" s="7">
+      <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="14"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="14"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AC30" s="7">
+      <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="14"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="8"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="14"/>
+      <c r="AG30" s="8"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD15:AD17"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AF18:AF19"/>
     <mergeCell ref="AF28:AF29"/>
     <mergeCell ref="AD29:AD30"/>
     <mergeCell ref="AE29:AE30"/>
@@ -1749,96 +1841,6 @@
     <mergeCell ref="AG22:AG23"/>
     <mergeCell ref="AH22:AH23"/>
     <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD15:AD17"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="U15:U17"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAA25D-1361-4D14-B96A-518794DE30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958E9F9-5EF4-403D-B77B-0B7E86637305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
   <si>
     <t>LUNES</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>SEMANA 13-19 DE FEBRERO</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
   </si>
 </sst>
 </file>
@@ -258,6 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -273,13 +279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,17 +784,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1"/>
@@ -799,15 +802,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="R14" s="1"/>
@@ -815,15 +818,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="7" t="s">
+      <c r="Z14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="1"/>
@@ -831,15 +834,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="14" t="s">
+      <c r="AE14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="14" t="s">
+      <c r="AG14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="7" t="s">
+      <c r="AI14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -848,118 +851,120 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="1"/>
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="13"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="1"/>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="14"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="13"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="1"/>
       <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AD15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG15" s="14"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15" s="13"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="8"/>
+      <c r="AI15" s="9"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="G16" s="12" t="s">
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="G16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
       <c r="K16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="9" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="P16" s="12" t="s">
+      <c r="N16" s="12"/>
+      <c r="P16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
       <c r="T16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="9" t="s">
+      <c r="U16" s="12"/>
+      <c r="V16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="Y16" s="12" t="s">
+      <c r="W16" s="12"/>
+      <c r="Y16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="13" t="s">
+      <c r="Z16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AC16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="9" t="s">
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AH16" s="12" t="s">
+      <c r="AF16" s="12"/>
+      <c r="AH16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AI16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -971,50 +976,50 @@
       <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="1"/>
       <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="9" t="s">
+      <c r="U17" s="11"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="1"/>
       <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="9" t="s">
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="7"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,12 +1029,12 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="3">
@@ -1038,12 +1043,12 @@
       <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="13" t="s">
+      <c r="M18" s="11"/>
+      <c r="N18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="14"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="T18" s="3">
@@ -1052,12 +1057,12 @@
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="13" t="s">
+      <c r="V18" s="11"/>
+      <c r="W18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="12"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="14"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="3">
@@ -1066,12 +1071,12 @@
       <c r="AD18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="13" t="s">
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="12"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="14"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
@@ -1081,7 +1086,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
@@ -1101,7 +1106,7 @@
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="13"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
@@ -1111,7 +1116,7 @@
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="13"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
@@ -1121,89 +1126,89 @@
       <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="W20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="13" t="s">
+      <c r="X20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="9" t="s">
+      <c r="AA20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="13" t="s">
+      <c r="AD20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AF20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AH20" s="13" t="s">
+      <c r="AH20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="9" t="s">
+      <c r="AJ20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1211,131 +1216,131 @@
       <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="11"/>
       <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="11"/>
       <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="10"/>
+      <c r="AA21" s="11"/>
       <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="10"/>
+      <c r="AJ21" s="11"/>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V22" s="12" t="s">
+      <c r="U22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="7" t="s">
+      <c r="AA22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE22" s="12" t="s">
+      <c r="AD22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="12" t="s">
+      <c r="AF22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="12" t="s">
+      <c r="AH22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="7" t="s">
+      <c r="AJ22" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1343,43 +1348,43 @@
       <c r="B23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="9"/>
       <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="9"/>
       <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="8"/>
+      <c r="AA23" s="9"/>
       <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="8"/>
+      <c r="AJ23" s="9"/>
     </row>
     <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1391,7 +1396,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="3">
@@ -1403,7 +1408,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="T24" s="3">
@@ -1415,7 +1420,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="7" t="s">
+      <c r="AA24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AC24" s="3">
@@ -1427,7 +1432,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="7" t="s">
+      <c r="AJ24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1441,7 +1446,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="9"/>
       <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1456,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="9"/>
       <c r="T25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1466,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="8"/>
+      <c r="AA25" s="9"/>
       <c r="AC25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1476,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="9"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1519,10 +1524,10 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1"/>
@@ -1533,7 +1538,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
@@ -1545,7 +1550,7 @@
       <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="V27" s="1"/>
@@ -1557,7 +1562,7 @@
       <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="7" t="s">
+      <c r="AD27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AE27" s="1"/>
@@ -1571,9 +1576,9 @@
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
@@ -1583,9 +1588,9 @@
       <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O28" s="1"/>
@@ -1595,9 +1600,9 @@
       <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="8"/>
+      <c r="U28" s="9"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="X28" s="1"/>
@@ -1607,9 +1612,9 @@
       <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="8"/>
+      <c r="AD28" s="9"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="7" t="s">
+      <c r="AF28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AG28" s="1"/>
@@ -1621,14 +1626,14 @@
       <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
@@ -1637,14 +1642,14 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="7" t="s">
+      <c r="M29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="1"/>
@@ -1653,14 +1658,14 @@
       <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="7" t="s">
+      <c r="V29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="9"/>
+      <c r="X29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="Y29" s="1"/>
@@ -1669,14 +1674,14 @@
       <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="9" t="s">
+      <c r="AD29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="7" t="s">
+      <c r="AE29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AH29" s="1"/>
@@ -1687,46 +1692,137 @@
       <c r="B30" s="4">
         <v>0</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="8"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="10"/>
-      <c r="V30" s="8"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="8"/>
+      <c r="X30" s="9"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="8"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="9"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="8"/>
+      <c r="AG30" s="9"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="AF15:AF17"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD15:AD17"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="P20:P21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="C22:C23"/>
@@ -1748,99 +1844,8 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="U15:U17"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD15:AD17"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="AF15:AF17"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AJ22:AJ23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958E9F9-5EF4-403D-B77B-0B7E86637305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7271B4D-0013-4A49-A38E-16722442228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
   <si>
     <t>LUNES</t>
   </si>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -261,7 +261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,20 +273,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -784,17 +787,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1"/>
@@ -802,15 +805,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="R14" s="1"/>
@@ -818,15 +821,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="13" t="s">
+      <c r="V14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="13" t="s">
+      <c r="X14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="1"/>
@@ -834,15 +837,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="13" t="s">
+      <c r="AE14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="13" t="s">
+      <c r="AG14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="8" t="s">
+      <c r="AI14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -854,117 +857,117 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="1"/>
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="13"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="1"/>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="U15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="10" t="s">
+      <c r="V15" s="14"/>
+      <c r="W15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="13"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="1"/>
       <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AD15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="10" t="s">
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG15" s="13"/>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="9"/>
+      <c r="AI15" s="10"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="11"/>
+      <c r="G16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
       <c r="K16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="P16" s="14" t="s">
+      <c r="N16" s="11"/>
+      <c r="P16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
       <c r="T16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="10" t="s">
+      <c r="U16" s="11"/>
+      <c r="V16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="12"/>
-      <c r="Y16" s="14" t="s">
+      <c r="W16" s="11"/>
+      <c r="Y16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AC16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="10" t="s">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AH16" s="14" t="s">
+      <c r="AF16" s="11"/>
+      <c r="AH16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="7" t="s">
+      <c r="AI16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -976,50 +979,50 @@
       <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
       <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="10" t="s">
+      <c r="U17" s="8"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="7"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="13"/>
       <c r="AA17" s="1"/>
       <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="10" t="s">
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="7"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,12 +1032,12 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="3">
@@ -1043,12 +1046,12 @@
       <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7" t="s">
+      <c r="M18" s="8"/>
+      <c r="N18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="T18" s="3">
@@ -1057,12 +1060,12 @@
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="7" t="s">
+      <c r="V18" s="8"/>
+      <c r="W18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="14"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="3">
@@ -1071,12 +1074,12 @@
       <c r="AD18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="7" t="s">
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="14"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="12"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="7"/>
+      <c r="W19" s="13"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="7"/>
+      <c r="AF19" s="13"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
@@ -1126,89 +1129,89 @@
       <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="7" t="s">
+      <c r="AE20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="7" t="s">
+      <c r="AF20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="7" t="s">
+      <c r="AG20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AH20" s="7" t="s">
+      <c r="AH20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="10" t="s">
+      <c r="AJ20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1216,131 +1219,129 @@
       <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="11"/>
+      <c r="R21" s="8"/>
       <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="11"/>
+      <c r="AA21" s="8"/>
       <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="11"/>
+      <c r="AJ21" s="8"/>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="X22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="14" t="s">
+      <c r="Y22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="8" t="s">
+      <c r="AA22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="8" t="s">
+      <c r="AD22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AE22" s="14" t="s">
+      <c r="AE22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="14" t="s">
+      <c r="AF22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AG22" s="14" t="s">
+      <c r="AG22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="14" t="s">
+      <c r="AH22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="8" t="s">
+      <c r="AJ22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1348,43 +1349,43 @@
       <c r="B23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="10"/>
       <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="10"/>
       <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="10"/>
       <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="9"/>
+      <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1396,7 +1397,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="3">
@@ -1408,7 +1409,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="T24" s="3">
@@ -1420,7 +1421,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="8" t="s">
+      <c r="AA24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AC24" s="3">
@@ -1432,7 +1433,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="8" t="s">
+      <c r="AJ24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="10"/>
       <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1457,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="10"/>
       <c r="T25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="10"/>
       <c r="AC25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1477,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="10"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1524,10 +1525,10 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1"/>
@@ -1538,7 +1539,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
@@ -1550,7 +1551,7 @@
       <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="8" t="s">
+      <c r="U27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="V27" s="1"/>
@@ -1562,7 +1563,7 @@
       <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="8" t="s">
+      <c r="AD27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AE27" s="1"/>
@@ -1576,9 +1577,9 @@
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
@@ -1588,9 +1589,9 @@
       <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O28" s="1"/>
@@ -1600,9 +1601,9 @@
       <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="9"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="X28" s="1"/>
@@ -1612,9 +1613,9 @@
       <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="9"/>
+      <c r="AD28" s="10"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="8" t="s">
+      <c r="AF28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AG28" s="1"/>
@@ -1626,14 +1627,12 @@
       <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
@@ -1642,14 +1641,14 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="8" t="s">
+      <c r="N29" s="10"/>
+      <c r="O29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="1"/>
@@ -1658,14 +1657,14 @@
       <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="8" t="s">
+      <c r="W29" s="10"/>
+      <c r="X29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Y29" s="1"/>
@@ -1674,14 +1673,14 @@
       <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="8" t="s">
+      <c r="AE29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="8" t="s">
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AH29" s="1"/>
@@ -1692,46 +1691,134 @@
       <c r="B30" s="4">
         <v>0</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="9"/>
+      <c r="X30" s="10"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="9"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="10"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="9"/>
+      <c r="AG30" s="10"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="112">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD15:AD17"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AI14:AI15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="AJ24:AJ25"/>
@@ -1756,96 +1843,6 @@
     <mergeCell ref="AJ20:AJ21"/>
     <mergeCell ref="AE16:AE18"/>
     <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD15:AD17"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="U15:U17"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7271B4D-0013-4A49-A38E-16722442228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D16E1D-C814-42FB-83C0-4A9B7E386629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="35">
   <si>
     <t>LUNES</t>
   </si>
@@ -117,20 +117,29 @@
     <t>SEMANA 6-12 DE MAR</t>
   </si>
   <si>
-    <t>estudiar ingles</t>
-  </si>
-  <si>
     <t>SEMANA 13-19 DE FEBRERO</t>
   </si>
   <si>
     <t>MERCADO</t>
+  </si>
+  <si>
+    <t>estudiar Fisica</t>
+  </si>
+  <si>
+    <t>INFOR. 3</t>
+  </si>
+  <si>
+    <t>trabajar</t>
+  </si>
+  <si>
+    <t>Lab. Inf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +173,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -261,11 +276,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -273,7 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -285,7 +303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,7 +601,7 @@
   <sheetData>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="5"/>
       <c r="M8" t="s">
@@ -712,7 +730,9 @@
       <c r="K12" s="3">
         <v>0.25</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -748,17 +768,19 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="T13" s="3" t="s">
@@ -787,49 +809,45 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1"/>
       <c r="K14" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="14" t="s">
+      <c r="L14" s="13"/>
+      <c r="M14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
       <c r="T14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="9" t="s">
+      <c r="Z14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="1"/>
@@ -837,15 +855,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="14" t="s">
+      <c r="AE14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="14" t="s">
+      <c r="AG14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="9" t="s">
+      <c r="AI14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -855,89 +873,85 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="1"/>
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="10"/>
+      <c r="L15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="7" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="14"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="1"/>
       <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="7" t="s">
+      <c r="AD15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="7" t="s">
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AG15" s="14"/>
+      <c r="AG15" s="15"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="10"/>
+      <c r="AI15" s="9"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="G16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="E16" s="2"/>
+      <c r="G16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
       <c r="K16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="P16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="13" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="P16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
@@ -945,14 +959,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="U16" s="11"/>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="W16" s="11"/>
-      <c r="Y16" s="12" t="s">
+      <c r="Y16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="13" t="s">
+      <c r="Z16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
@@ -960,14 +974,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="7" t="s">
+      <c r="AE16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AF16" s="11"/>
-      <c r="AH16" s="12" t="s">
+      <c r="AH16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AI16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -979,50 +993,50 @@
       <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="1"/>
       <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="U17" s="12"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="7" t="s">
+      <c r="W17" s="12"/>
+      <c r="X17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="1"/>
       <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="8"/>
+      <c r="AD17" s="12"/>
       <c r="AE17" s="11"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="7" t="s">
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="14"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,26 +1046,24 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="13" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="T18" s="3">
@@ -1060,12 +1072,12 @@
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="13" t="s">
+      <c r="V18" s="12"/>
+      <c r="W18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="13"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="3">
@@ -1074,12 +1086,12 @@
       <c r="AD18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="13" t="s">
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="13"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
@@ -1089,7 +1101,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1097,9 +1109,11 @@
       <c r="K19" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
@@ -1109,7 +1123,7 @@
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="13"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
@@ -1119,7 +1133,7 @@
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="13"/>
+      <c r="AF19" s="14"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
@@ -1129,89 +1143,85 @@
       <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="R20" s="2"/>
       <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="W20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="13" t="s">
+      <c r="X20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="7" t="s">
+      <c r="AA20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="13" t="s">
+      <c r="AD20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AF20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AH20" s="13" t="s">
+      <c r="AH20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="7" t="s">
+      <c r="AJ20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1219,129 +1229,127 @@
       <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="2"/>
       <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="2"/>
       <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="8"/>
+      <c r="AA21" s="12"/>
       <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="12"/>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="9" t="s">
-        <v>25</v>
+      <c r="R22" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="V22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="9" t="s">
+      <c r="AA22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE22" s="12" t="s">
+      <c r="AE22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="12" t="s">
+      <c r="AF22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="12" t="s">
+      <c r="AH22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="9" t="s">
+      <c r="AJ22" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1349,43 +1357,43 @@
       <c r="B23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="7"/>
       <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="12"/>
       <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="10"/>
+      <c r="AA23" s="9"/>
       <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="10"/>
+      <c r="AJ23" s="9"/>
     </row>
     <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1397,9 +1405,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="K24" s="3">
         <v>0.75</v>
       </c>
@@ -1409,8 +1415,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="9" t="s">
-        <v>24</v>
+      <c r="R24" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="T24" s="3">
         <v>0.75</v>
@@ -1421,7 +1427,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="9" t="s">
+      <c r="AA24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AC24" s="3">
@@ -1433,7 +1439,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="9" t="s">
+      <c r="AJ24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1447,7 +1453,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="7"/>
       <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1463,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="10"/>
+      <c r="R25" s="12"/>
       <c r="T25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1473,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="9"/>
       <c r="AC25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="10"/>
+      <c r="AJ25" s="9"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1525,13 +1531,13 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1539,7 +1545,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
@@ -1551,7 +1557,7 @@
       <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="V27" s="1"/>
@@ -1563,7 +1569,7 @@
       <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="9" t="s">
+      <c r="AD27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AE27" s="1"/>
@@ -1573,15 +1579,13 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1589,11 +1593,9 @@
       <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="N28" s="16"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1601,9 +1603,9 @@
       <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="10"/>
+      <c r="U28" s="9"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="X28" s="1"/>
@@ -1613,9 +1615,9 @@
       <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="10"/>
+      <c r="AD28" s="9"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="9" t="s">
+      <c r="AF28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AG28" s="1"/>
@@ -1628,11 +1630,9 @@
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
@@ -1641,30 +1641,24 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="V29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="9" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="Y29" s="1"/>
@@ -1673,14 +1667,14 @@
       <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="9" t="s">
+      <c r="AE29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="9" t="s">
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="AH29" s="1"/>
@@ -1692,54 +1686,49 @@
         <v>0</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="10"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="8"/>
-      <c r="V30" s="10"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="10"/>
+      <c r="X30" s="9"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="10"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="9"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="10"/>
+      <c r="AG30" s="9"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="100">
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="I20:I21"/>
     <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F14:F15"/>
@@ -1754,11 +1743,8 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="O14:O15"/>
@@ -1766,41 +1752,40 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="P20:P21"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L12:L14"/>
     <mergeCell ref="Z16:Z17"/>
     <mergeCell ref="W18:W19"/>
     <mergeCell ref="AH20:AH21"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="X14:X15"/>
     <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P20:P21"/>
     <mergeCell ref="U15:U17"/>
     <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="V22:V23"/>
     <mergeCell ref="W22:W23"/>
     <mergeCell ref="X22:X23"/>
     <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="E27:E29"/>
     <mergeCell ref="AI16:AI17"/>
     <mergeCell ref="AF18:AF19"/>
     <mergeCell ref="AF28:AF29"/>
     <mergeCell ref="AD29:AD30"/>
     <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="AA24:AA25"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="AD15:AD17"/>
@@ -1818,14 +1803,9 @@
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="AE14:AE15"/>
     <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="AJ24:AJ25"/>
     <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="N15:N17"/>
     <mergeCell ref="O17:O18"/>
-    <mergeCell ref="N28:N29"/>
     <mergeCell ref="W15:W17"/>
     <mergeCell ref="X17:X18"/>
     <mergeCell ref="U22:U23"/>
@@ -1843,8 +1823,11 @@
     <mergeCell ref="AJ20:AJ21"/>
     <mergeCell ref="AE16:AE18"/>
     <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="R24:R25"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D16E1D-C814-42FB-83C0-4A9B7E386629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A407EA0-91EA-4340-94C8-592AB5CDCAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
   <si>
     <t>LUNES</t>
   </si>
@@ -132,14 +132,17 @@
     <t>trabajar</t>
   </si>
   <si>
-    <t>Lab. Inf</t>
+    <t xml:space="preserve">cita médica </t>
+  </si>
+  <si>
+    <t>trabajos de ingles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -280,6 +289,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,17 +309,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -590,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,7 +748,7 @@
       <c r="K12" s="3">
         <v>0.25</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="1"/>
@@ -768,7 +786,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="1"/>
@@ -776,12 +794,14 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="T13" s="3" t="s">
         <v>18</v>
@@ -816,15 +836,15 @@
       <c r="F14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1"/>
       <c r="K14" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
         <v>11</v>
       </c>
@@ -833,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="1"/>
       <c r="T14" s="3">
         <v>0.33333333333333331</v>
@@ -847,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="1"/>
@@ -863,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="8" t="s">
+      <c r="AI14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -878,110 +898,110 @@
       <c r="D15" s="15"/>
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="2"/>
       <c r="O15" s="15"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="1"/>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>23</v>
+      <c r="U15" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="V15" s="15"/>
-      <c r="W15" s="10" t="s">
+      <c r="W15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="1"/>
       <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AD15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="10" t="s">
+      <c r="AF15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AG15" s="15"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="9"/>
+      <c r="AI15" s="11"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
       <c r="K16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
       <c r="T16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="10" t="s">
+      <c r="U16" s="13"/>
+      <c r="V16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="Y16" s="13" t="s">
+      <c r="W16" s="13"/>
+      <c r="Y16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="Z16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AC16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="10" t="s">
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AH16" s="13" t="s">
+      <c r="AF16" s="13"/>
+      <c r="AH16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="14" t="s">
+      <c r="AI16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -993,50 +1013,50 @@
       <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="15"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="1"/>
       <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="10" t="s">
+      <c r="U17" s="14"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="1"/>
       <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="10" t="s">
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="14"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="9"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,12 +1066,12 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="3">
@@ -1059,11 +1079,11 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="T18" s="3">
@@ -1072,12 +1092,12 @@
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="14" t="s">
+      <c r="V18" s="14"/>
+      <c r="W18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="13"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="16"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="3">
@@ -1086,12 +1106,12 @@
       <c r="AD18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="14" t="s">
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="16"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
@@ -1101,7 +1121,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1113,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
@@ -1123,7 +1143,7 @@
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="14"/>
+      <c r="W19" s="9"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
@@ -1133,7 +1153,7 @@
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="14"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
@@ -1143,19 +1163,19 @@
       <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
@@ -1163,19 +1183,19 @@
       <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
@@ -1183,45 +1203,45 @@
       <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="14" t="s">
+      <c r="U20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="W20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="14" t="s">
+      <c r="X20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="14" t="s">
+      <c r="Y20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="14" t="s">
+      <c r="AD20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="14" t="s">
+      <c r="AE20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="14" t="s">
+      <c r="AF20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="14" t="s">
+      <c r="AG20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AH20" s="14" t="s">
+      <c r="AH20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="10" t="s">
+      <c r="AJ20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1229,59 +1249,59 @@
       <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="2"/>
       <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="12"/>
+      <c r="AA21" s="14"/>
       <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="12"/>
+      <c r="AJ21" s="14"/>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
@@ -1289,67 +1309,65 @@
       <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="R22" s="2"/>
       <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="13" t="s">
+      <c r="X22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="13" t="s">
+      <c r="Y22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="8" t="s">
+      <c r="AA22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="8" t="s">
+      <c r="AD22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AE22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="13" t="s">
+      <c r="AF22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG22" s="13" t="s">
+      <c r="AG22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="13" t="s">
+      <c r="AH22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="8" t="s">
+      <c r="AJ22" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1358,42 +1376,42 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
       <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="12"/>
+      <c r="R23" s="2"/>
       <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="11"/>
       <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="9"/>
+      <c r="AJ23" s="11"/>
     </row>
     <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1415,9 +1433,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="R24" s="2"/>
       <c r="T24" s="3">
         <v>0.75</v>
       </c>
@@ -1427,7 +1443,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="8" t="s">
+      <c r="AA24" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC24" s="3">
@@ -1439,7 +1455,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="8" t="s">
+      <c r="AJ24" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1463,7 +1479,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="12"/>
+      <c r="R25" s="2"/>
       <c r="T25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1489,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="11"/>
       <c r="AC25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1499,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="11"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1531,11 +1547,11 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="1"/>
@@ -1545,7 +1561,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
@@ -1557,7 +1573,7 @@
       <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="8" t="s">
+      <c r="U27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="V27" s="1"/>
@@ -1569,7 +1585,7 @@
       <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="8" t="s">
+      <c r="AD27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AE27" s="1"/>
@@ -1583,9 +1599,9 @@
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1593,9 +1609,9 @@
       <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="16"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1603,9 +1619,9 @@
       <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="9"/>
+      <c r="U28" s="11"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="X28" s="1"/>
@@ -1615,9 +1631,9 @@
       <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="9"/>
+      <c r="AD28" s="11"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="8" t="s">
+      <c r="AF28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AG28" s="1"/>
@@ -1631,8 +1647,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
@@ -1651,14 +1667,14 @@
       <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="8" t="s">
+      <c r="W29" s="11"/>
+      <c r="X29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="Y29" s="1"/>
@@ -1667,14 +1683,14 @@
       <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="8" t="s">
+      <c r="AE29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="8" t="s">
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AH29" s="1"/>
@@ -1688,7 +1704,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1705,26 +1721,109 @@
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="11"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="9"/>
+      <c r="X30" s="11"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="9"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="11"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="9"/>
+      <c r="AG30" s="11"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="99">
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="AF15:AF17"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD15:AD17"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="C27:C28"/>
@@ -1741,90 +1840,6 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="U15:U17"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD15:AD17"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="AF15:AF17"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="R24:R25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/programacion 1 mes.xlsx
+++ b/programacion 1 mes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\j\UdeA\informatica2\me_programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A407EA0-91EA-4340-94C8-592AB5CDCAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56309649-DC81-47A3-9918-7972CA380FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
   <si>
     <t>LUNES</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>trabajos de ingles</t>
+  </si>
+  <si>
+    <t>programar info. 2</t>
+  </si>
+  <si>
+    <t>estudiar info. 2</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,6 +298,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -300,19 +315,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27:U28"/>
+    <sheetView tabSelected="1" topLeftCell="W10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24:AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,7 +817,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="R13" s="1"/>
@@ -837,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1"/>
@@ -853,23 +871,21 @@
         <v>11</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="1"/>
       <c r="T14" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="15" t="s">
-        <v>11</v>
+      <c r="V14" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="1"/>
       <c r="AC14" s="3">
         <v>0.33333333333333331</v>
@@ -883,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="10" t="s">
+      <c r="AI14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -899,7 +915,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -911,52 +927,48 @@
       <c r="N15" s="2"/>
       <c r="O15" s="15"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="1"/>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="12" t="s">
-        <v>25</v>
+      <c r="V15" s="19"/>
+      <c r="W15" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="1"/>
       <c r="AC15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="15"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="11"/>
+      <c r="AI15" s="14"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
@@ -971,56 +983,53 @@
       <c r="P16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="1"/>
       <c r="T16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W16" s="13"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="Y16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Z16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AC16" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF16" s="13"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
       <c r="AH16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="AI16" s="9"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3">
         <v>0.45833333333333331</v>
@@ -1028,31 +1037,29 @@
       <c r="L17" s="16"/>
       <c r="M17" s="15"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="P17" s="16"/>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="1"/>
       <c r="T17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="16"/>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="17"/>
       <c r="AA17" s="1"/>
       <c r="AC17" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="12" t="s">
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AH17" s="16"/>
@@ -1066,11 +1073,11 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="16"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1079,10 +1086,10 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="14"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1092,25 +1099,21 @@
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="14"/>
-      <c r="W18" s="9" t="s">
+      <c r="V18" s="20"/>
+      <c r="W18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="14"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG18" s="14"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="12"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -1121,7 +1124,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1133,7 +1136,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="9"/>
+      <c r="W19" s="17"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
@@ -1163,19 +1166,19 @@
       <c r="B20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
@@ -1183,19 +1186,19 @@
       <c r="K20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
@@ -1203,45 +1206,41 @@
       <c r="T20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AC20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AD20" s="9" t="s">
+      <c r="AD20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="9" t="s">
+      <c r="AE20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF20" s="9" t="s">
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AG20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="12" t="s">
+      <c r="AJ20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1249,43 +1248,43 @@
       <c r="B21" s="3">
         <v>0.625</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="2"/>
       <c r="T21" s="3">
         <v>0.625</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="14"/>
+      <c r="AA21" s="2"/>
       <c r="AC21" s="3">
         <v>0.625</v>
       </c>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="14"/>
+      <c r="AJ21" s="12"/>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -1309,7 +1308,7 @@
       <c r="K22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="16" t="s">
@@ -1329,9 +1328,7 @@
       <c r="T22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="U22" s="7"/>
       <c r="V22" s="16" t="s">
         <v>6</v>
       </c>
@@ -1346,14 +1343,12 @@
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC22" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="16" t="s">
         <v>6</v>
       </c>
@@ -1367,9 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -1385,7 +1378,7 @@
       <c r="K23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1395,7 +1388,7 @@
       <c r="T23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U23" s="11"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -1405,13 +1398,13 @@
       <c r="AC23" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AD23" s="11"/>
+      <c r="AD23" s="7"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1443,21 +1436,19 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA24" s="11"/>
       <c r="AC24" s="3">
         <v>0.75</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+      <c r="AF24" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -1495,11 +1486,11 @@
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="11"/>
+      <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1531,13 +1522,13 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="11"/>
       <c r="AC26" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+      <c r="AF26" s="11"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
@@ -1547,11 +1538,11 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="1"/>
@@ -1561,7 +1552,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="13" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
@@ -1573,23 +1564,19 @@
       <c r="T27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="U27" s="7"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="11"/>
       <c r="AC27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD27" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD27" s="7"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+      <c r="AF27" s="11"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
@@ -1599,9 +1586,9 @@
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1609,7 +1596,7 @@
       <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="1"/>
       <c r="N28" s="8"/>
       <c r="O28" s="1"/>
@@ -1619,23 +1606,19 @@
       <c r="T28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="11"/>
+      <c r="U28" s="7"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="W28" s="7"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="11"/>
       <c r="AC28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AD28" s="11"/>
+      <c r="AD28" s="7"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="AF28" s="11"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -1647,8 +1630,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
@@ -1667,30 +1650,24 @@
       <c r="T29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29" s="10" t="s">
+      <c r="U29" s="2"/>
+      <c r="V29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+      <c r="AA29" s="11"/>
       <c r="AC29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="12" t="s">
+      <c r="AD29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="10" t="s">
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AH29" s="1"/>
@@ -1704,7 +1681,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1721,95 +1698,98 @@
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="14"/>
-      <c r="V30" s="11"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="14"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="11"/>
+      <c r="X30" s="7"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
+      <c r="AA30" s="12"/>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="11"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="11"/>
+      <c r="AG30" s="14"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ24:AJ25"/>
+  <mergeCells count="79">
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="AG29:AG30"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="U29:U30"/>
     <mergeCell ref="V29:V30"/>
-    <mergeCell ref="AF15:AF17"/>
     <mergeCell ref="AG17:AG18"/>
     <mergeCell ref="AE22:AE23"/>
     <mergeCell ref="AF22:AF23"/>
     <mergeCell ref="AG22:AG23"/>
     <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI14:AI15"/>
     <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AF28:AF29"/>
     <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD15:AD17"/>
     <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD27:AD28"/>
     <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
     <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="V14:V18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="AH20:AH21"/>
     <mergeCell ref="P16:P18"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="U15:U17"/>
     <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="AA22:AA30"/>
+    <mergeCell ref="AF24:AF29"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="L20:L21"/>
@@ -1817,29 +1797,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
